--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAAFACF-691F-42EC-BBC0-E4CCFB07BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17060C23-D889-4558-833A-162360C4230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{AC6E13B8-1F4C-4FDA-A41C-6E4A3A9A61A6}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{0C29653E-A747-4AF6-B328-22C0DE2CBA23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E3DA2-EF14-4E2F-86EB-911D569DC781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630C6B11-8808-4C89-8229-9BE4C71ECC59}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17060C23-D889-4558-833A-162360C4230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D896965C-974E-45A6-956E-56B18C4803E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{0C29653E-A747-4AF6-B328-22C0DE2CBA23}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{0CA18490-8C62-4C93-802F-08BB2AD1ED51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630C6B11-8808-4C89-8229-9BE4C71ECC59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1944DC1E-410F-43EE-A131-DAC69CB9AB89}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D896965C-974E-45A6-956E-56B18C4803E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F037426-35FD-47BA-A09E-AB1648B0BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{0CA18490-8C62-4C93-802F-08BB2AD1ED51}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{B778427B-52A0-41AC-91F9-D58E1299E5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1944DC1E-410F-43EE-A131-DAC69CB9AB89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F2CBEE-7FE8-4FB9-A231-93BBC814183A}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F037426-35FD-47BA-A09E-AB1648B0BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D5197E-1865-4947-870D-BB3F3AB59AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{B778427B-52A0-41AC-91F9-D58E1299E5D9}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{77DCEA3C-BB05-4549-A852-E8B8462B7FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F2CBEE-7FE8-4FB9-A231-93BBC814183A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7E4D7E-6828-4BE9-A21E-9719370F7F63}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24126,7 +24126,7 @@
         <v>5</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -24477,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
